--- a/Project-02/data/results/B.xlsx
+++ b/Project-02/data/results/B.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="B" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Report_2019-12-08-14-11-06" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="11">
   <si>
     <t xml:space="preserve">Instance</t>
   </si>
@@ -37,16 +37,16 @@
     <t xml:space="preserve">Time (s)</t>
   </si>
   <si>
-    <t xml:space="preserve">page.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pendigit.txt</t>
+    <t xml:space="preserve">image2.txt</t>
   </si>
   <si>
     <t xml:space="preserve">letter.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">image2.txt</t>
+    <t xml:space="preserve">page.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pendigit.txt</t>
   </si>
   <si>
     <t xml:space="preserve">tsplib1060.txt</t>
@@ -148,10 +148,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="L41" activeCellId="0" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -159,8 +159,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -189,506 +189,920 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>57936849898.6536</v>
+        <v>35605723.319389</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>31.343572667</v>
+        <v>3.54773059</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>128118776.281815</v>
+        <v>9795192.238355</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>173.959020619</v>
+        <v>19.174349968</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1381892.314886</v>
+        <v>5128288.364747</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>406.805978298</v>
+        <v>102.046519193</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>35605723.319389</v>
+        <v>3507108.086237</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>27.769888411</v>
+        <v>85.610493739</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>9795192.238355</v>
+        <v>2742675.399478</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>92.41083073</v>
+        <v>152.587416465</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5128275.290035</v>
+        <v>2224778.142574</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>161.958264244</v>
+        <v>144.337273344</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>3507080.426984</v>
+        <v>1876766.328636</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>199.722593457</v>
+        <v>192.864329213</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>2742626.377322</v>
+        <v>1414910.247454</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.001032</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>266.679068972</v>
+        <v>358.180426626</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>2224582.132184</v>
+        <v>1136418.290683</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>271.319652917</v>
+        <v>444.732136381</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1876313.400573</v>
+        <v>1381892.314886</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>288.845336306</v>
+        <v>43.360852112</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1414910.247454</v>
+        <v>857502.784874</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>346.466578665</v>
+        <v>559.673421962</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1134630.234378</v>
+        <v>672591.722003</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>425.554601827</v>
+        <v>1193.629939102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>9831949884.20149</v>
+        <v>578883.154885</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>4.180905882</v>
+        <v>1052.062803063</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1754840214.06003</v>
+        <v>518474.889815</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>2.3E-005</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>14.50854735</v>
+        <v>3506.356996681</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>791794596.229896</v>
+        <v>475255.076214</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>17.616975812</v>
+        <v>3494.396955398</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>481251642.93527</v>
+        <v>440601.672587</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>22.32782878</v>
+        <v>1608.825090662</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>341342885.862408</v>
+        <v>390242.043739</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>26.506277085</v>
+        <v>5480.352261142</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>255513697.952302</v>
+        <v>354734.586261</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1.4E-005</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>29.049980898</v>
+        <v>9911.64735226</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>197357320.444156</v>
+        <v>57936849898.6536</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>34.658214636</v>
+        <v>3.505737672</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>128900861.968755</v>
+        <v>4532995966.48645</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>40.59501129</v>
+        <v>41.125366356</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>96580615.91688</v>
+        <v>1669850395.72127</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>48.378657</v>
+        <v>116.476356228</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>3168804679.21192</v>
+        <v>922114999.63177</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>11.411950324</v>
+        <v>308.520775648</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>560251191.254285</v>
+        <v>612897748.79756</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>49.791867188</v>
+        <v>437.081098611</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>266812482.108701</v>
+        <v>417003960.090343</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>78.483883199</v>
+        <v>694.666320363</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>175538647.150998</v>
+        <v>308509964.88194</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0</v>
+        <v>3.2E-005</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>97.841690995</v>
+        <v>990.98590172</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>124961942.637125</v>
+        <v>201973672.945788</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>110.390670616</v>
+        <v>1378.152877246</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>98243046.084911</v>
+        <v>142779272.796792</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>127.023322747</v>
+        <v>1177.192799471</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>80543339.088514</v>
+        <v>128118776.281815</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>136.26433634</v>
+        <v>19.716402472</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>60543022.003871</v>
+        <v>49301509.246522</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>200.836970567</v>
+        <v>90.087910547</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>34019361.791844</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>328.926377612</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>27089778.575708</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>652.288730499</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>23438564.766781</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>795.655295194</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>21049941.873739</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1659.458385412</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>19316259.807413</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1744.617904388</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>16884290.532586</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>2706.470271873</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <v>47703485.648815</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>192.80042024</v>
+      <c r="C37" s="0" t="n">
+        <v>15230986.307168</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1967.660087755</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>9831949884.20149</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.397131306</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1754840214.06003</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>2.3E-005</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>2.142982791</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>791804679.59014</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1.9E-005</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>3.272414698</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>481399794.115678</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.000311</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>9.262902564</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>341343017.079619</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>18.90234097</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>255948024.883322</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.001714</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>9.529185008</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>197286175.284976</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>20.266922213</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>128895113.705361</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>37.279690494</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>96477249.170656</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>53.594459048</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>3168804679.21192</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1.292149439</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>560251191.254285</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>9.908671369</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>266812574.454949</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>33.166821572</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>175539250.522888</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>26.799263582</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>124962873.820759</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>62.356295046</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>98296033.939635</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>80.983204657</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>80507605.994379</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>95.478541534</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>60604910.211321</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>168.250585884</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>48050710.445718</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>47.413658939</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="0" t="n">
+        <f aca="false">AVERAGE(D2:D55)</f>
+        <v>5.82962962962963E-005</v>
       </c>
     </row>
   </sheetData>
